--- a/document/Project Estimation.xlsx
+++ b/document/Project Estimation.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Overall" sheetId="2" r:id="rId1"/>
+    <sheet name="Detail" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Task</t>
   </si>
@@ -97,6 +97,75 @@
   </si>
   <si>
     <t xml:space="preserve">     Test cycle 1</t>
+  </si>
+  <si>
+    <t>Sam Shi</t>
+  </si>
+  <si>
+    <t>Carl Yan</t>
+  </si>
+  <si>
+    <t>Kevin Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Requirement</t>
+  </si>
+  <si>
+    <t>Leon Jin</t>
+  </si>
+  <si>
+    <t>After scope change</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Efforts</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Before scope Change</t>
+  </si>
+  <si>
+    <t>Mobile Mockup</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>After scope Change</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Matt Zhu</t>
+  </si>
+  <si>
+    <t>Angle Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CR fixing</t>
+  </si>
+  <si>
+    <t>Matt Zhu, Angle Fu</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -112,12 +181,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,145 +504,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <f>SUM(B3:B6)</f>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <f>SUM(B10:B12)</f>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <f>D7+D14</f>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -576,12 +638,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
